--- a/PowerSpel-PenTest/Overzicht_goals.xlsx
+++ b/PowerSpel-PenTest/Overzicht_goals.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Penetraties</t>
   </si>
@@ -75,9 +75,6 @@
     <t>remote code execution gerealiseerd op PC</t>
   </si>
   <si>
-    <t>TOTAAL punten:</t>
-  </si>
-  <si>
     <t>gevoelige technische informatie ingezien</t>
   </si>
   <si>
@@ -100,13 +97,31 @@
   </si>
   <si>
     <t>Ja</t>
+  </si>
+  <si>
+    <t>packet sniffer op coreswitch aangesloten</t>
+  </si>
+  <si>
+    <t>Manieren om spel te eindigen</t>
+  </si>
+  <si>
+    <t>Manier</t>
+  </si>
+  <si>
+    <t>Kamer</t>
+  </si>
+  <si>
+    <t>Eindscenario</t>
+  </si>
+  <si>
+    <t>Maximaal behaalbare punten:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +133,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -385,11 +408,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -418,6 +480,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -698,17 +772,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
@@ -776,13 +850,13 @@
         <v>5</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="H4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -824,12 +898,12 @@
         <v>5</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>200</v>
@@ -840,7 +914,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
         <v>400</v>
@@ -849,25 +923,112 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="19">
+        <v>400</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="9">
+        <v>200</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="9">
-        <v>200</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1">
-        <f>SUM(B3:B10)</f>
-        <v>2500</v>
-      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="22">
+        <f>SUM(B3:B11)</f>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PowerSpel-PenTest/Overzicht_goals.xlsx
+++ b/PowerSpel-PenTest/Overzicht_goals.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>Penetraties</t>
   </si>
@@ -115,6 +115,57 @@
   </si>
   <si>
     <t>Maximaal behaalbare punten:</t>
+  </si>
+  <si>
+    <t>Van terrein aflopen</t>
+  </si>
+  <si>
+    <t>Nooduitgang bovenste verdieping gebruiken</t>
+  </si>
+  <si>
+    <t>091100</t>
+  </si>
+  <si>
+    <t>070704</t>
+  </si>
+  <si>
+    <t>060704</t>
+  </si>
+  <si>
+    <t>070802</t>
+  </si>
+  <si>
+    <t>Kopieerapparaat misbruiken</t>
+  </si>
+  <si>
+    <t>SSD-pc gebruiken</t>
+  </si>
+  <si>
+    <t>IA-pc gebruiken</t>
+  </si>
+  <si>
+    <t>Personeelsdossiers inzien</t>
+  </si>
+  <si>
+    <t>Herrie maken in loods</t>
+  </si>
+  <si>
+    <t>Sleutelbeen breken op serverruimtedeur</t>
+  </si>
+  <si>
+    <t>040600</t>
+  </si>
+  <si>
+    <t>060900</t>
+  </si>
+  <si>
+    <t>050802</t>
+  </si>
+  <si>
+    <t>070401</t>
+  </si>
+  <si>
+    <t>Airco saboteren</t>
   </si>
 </sst>
 </file>
@@ -451,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -491,6 +542,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,12 +853,12 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
@@ -971,64 +1049,118 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="27">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="27">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="27">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="27">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="27">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="27">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="27">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="27">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="27"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="27"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PowerSpel-PenTest/Overzicht_goals.xlsx
+++ b/PowerSpel-PenTest/Overzicht_goals.xlsx
@@ -853,7 +853,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PowerSpel-PenTest/Overzicht_goals.xlsx
+++ b/PowerSpel-PenTest/Overzicht_goals.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>Penetraties</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Airco saboteren</t>
+  </si>
+  <si>
+    <t>Tutorial doorlopen</t>
   </si>
 </sst>
 </file>
@@ -853,7 +856,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -908,16 +911,16 @@
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -927,17 +930,17 @@
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>23</v>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -946,6 +949,12 @@
       </c>
       <c r="C5" s="7" t="s">
         <v>5</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>11</v>

--- a/PowerSpel-PenTest/Overzicht_goals.xlsx
+++ b/PowerSpel-PenTest/Overzicht_goals.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Penetraties</t>
   </si>
@@ -169,12 +169,18 @@
   </si>
   <si>
     <t>Tutorial doorlopen</t>
+  </si>
+  <si>
+    <t>Game master</t>
+  </si>
+  <si>
+    <t>Speel een spel op de MAME-kast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -501,11 +507,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -573,6 +605,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -852,11 +888,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,18 +905,15 @@
     <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -890,17 +923,14 @@
       <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -916,11 +946,8 @@
       <c r="F3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -930,17 +957,14 @@
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -950,17 +974,14 @@
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -970,11 +991,14 @@
       <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -984,11 +1008,8 @@
       <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -999,7 +1020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1010,7 +1031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>26</v>
       </c>
@@ -1021,7 +1042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
@@ -1032,7 +1053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>31</v>
       </c>
@@ -1041,12 +1062,15 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>28</v>
       </c>
@@ -1056,8 +1080,11 @@
       <c r="C16" s="16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F16" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>32</v>
       </c>
@@ -1067,8 +1094,11 @@
       <c r="C17" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F17" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>33</v>
       </c>
@@ -1078,8 +1108,11 @@
       <c r="C18" s="27">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F18" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>48</v>
       </c>
@@ -1089,8 +1122,11 @@
       <c r="C19" s="27">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F19" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>39</v>
       </c>
@@ -1100,8 +1136,11 @@
       <c r="C20" s="27">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F20" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>40</v>
       </c>
@@ -1111,8 +1150,11 @@
       <c r="C21" s="27">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F21" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>41</v>
       </c>
@@ -1123,7 +1165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>42</v>
       </c>
@@ -1134,7 +1176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>43</v>
       </c>
@@ -1145,7 +1187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>38</v>
       </c>
@@ -1156,17 +1198,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="31"/>
       <c r="C26" s="27"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="31"/>
       <c r="C27" s="27"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
       <c r="B28" s="32"/>
       <c r="C28" s="29"/>
@@ -1174,5 +1216,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B17:B25" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>